--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.243795</v>
+        <v>1.370938333333333</v>
       </c>
       <c r="H2">
-        <v>0.731385</v>
+        <v>4.112815</v>
       </c>
       <c r="I2">
-        <v>6.390794166387177E-05</v>
+        <v>0.000246577495072608</v>
       </c>
       <c r="J2">
-        <v>6.390794166387177E-05</v>
+        <v>0.0002465774950726081</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N2">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O2">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P2">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q2">
-        <v>1.15859640524</v>
+        <v>16.99436727429778</v>
       </c>
       <c r="R2">
-        <v>10.42736764716</v>
+        <v>152.94930546868</v>
       </c>
       <c r="S2">
-        <v>2.653227456445402E-06</v>
+        <v>2.205415865374737E-05</v>
       </c>
       <c r="T2">
-        <v>2.653227456445402E-06</v>
+        <v>2.205415865374737E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.243795</v>
+        <v>1.370938333333333</v>
       </c>
       <c r="H3">
-        <v>0.731385</v>
+        <v>4.112815</v>
       </c>
       <c r="I3">
-        <v>6.390794166387177E-05</v>
+        <v>0.000246577495072608</v>
       </c>
       <c r="J3">
-        <v>6.390794166387177E-05</v>
+        <v>0.0002465774950726081</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N3">
         <v>21.28786</v>
       </c>
       <c r="O3">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P3">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q3">
-        <v>1.7299579429</v>
+        <v>9.728114436211111</v>
       </c>
       <c r="R3">
-        <v>15.5696214861</v>
+        <v>87.55302992590001</v>
       </c>
       <c r="S3">
-        <v>3.961665936333789E-06</v>
+        <v>1.262449938353914E-05</v>
       </c>
       <c r="T3">
-        <v>3.961665936333788E-06</v>
+        <v>1.262449938353914E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.243795</v>
+        <v>1.370938333333333</v>
       </c>
       <c r="H4">
-        <v>0.731385</v>
+        <v>4.112815</v>
       </c>
       <c r="I4">
-        <v>6.390794166387177E-05</v>
+        <v>0.000246577495072608</v>
       </c>
       <c r="J4">
-        <v>6.390794166387177E-05</v>
+        <v>0.0002465774950726081</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N4">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O4">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P4">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q4">
-        <v>6.666626528395</v>
+        <v>47.79614819839222</v>
       </c>
       <c r="R4">
-        <v>59.999638755555</v>
+        <v>430.16533378553</v>
       </c>
       <c r="S4">
-        <v>1.526681462760181E-05</v>
+        <v>6.202665968032753E-05</v>
       </c>
       <c r="T4">
-        <v>1.526681462760181E-05</v>
+        <v>6.202665968032754E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.243795</v>
+        <v>1.370938333333333</v>
       </c>
       <c r="H5">
-        <v>0.731385</v>
+        <v>4.112815</v>
       </c>
       <c r="I5">
-        <v>6.390794166387177E-05</v>
+        <v>0.000246577495072608</v>
       </c>
       <c r="J5">
-        <v>6.390794166387177E-05</v>
+        <v>0.0002465774950726081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N5">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O5">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P5">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q5">
-        <v>0.976433187565</v>
+        <v>2.143596436123334</v>
       </c>
       <c r="R5">
-        <v>8.787898688084999</v>
+        <v>19.29236792511</v>
       </c>
       <c r="S5">
-        <v>2.23606713339949E-06</v>
+        <v>2.781816770746758E-06</v>
       </c>
       <c r="T5">
-        <v>2.23606713339949E-06</v>
+        <v>2.781816770746759E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.243795</v>
+        <v>1.370938333333333</v>
       </c>
       <c r="H6">
-        <v>0.731385</v>
+        <v>4.112815</v>
       </c>
       <c r="I6">
-        <v>6.390794166387177E-05</v>
+        <v>0.000246577495072608</v>
       </c>
       <c r="J6">
-        <v>6.390794166387177E-05</v>
+        <v>0.0002465774950726081</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N6">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O6">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P6">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q6">
-        <v>12.563270513655</v>
+        <v>70.89403849494167</v>
       </c>
       <c r="R6">
-        <v>113.069434622895</v>
+        <v>638.046346454475</v>
       </c>
       <c r="S6">
-        <v>2.877034152602561E-05</v>
+        <v>9.200156424399287E-05</v>
       </c>
       <c r="T6">
-        <v>2.877034152602561E-05</v>
+        <v>9.200156424399287E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.243795</v>
+        <v>1.370938333333333</v>
       </c>
       <c r="H7">
-        <v>0.731385</v>
+        <v>4.112815</v>
       </c>
       <c r="I7">
-        <v>6.390794166387177E-05</v>
+        <v>0.000246577495072608</v>
       </c>
       <c r="J7">
-        <v>6.390794166387177E-05</v>
+        <v>0.0002465774950726081</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N7">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O7">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P7">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q7">
-        <v>4.812075037855</v>
+        <v>42.45000919797945</v>
       </c>
       <c r="R7">
-        <v>43.308675340695</v>
+        <v>382.050082781815</v>
       </c>
       <c r="S7">
-        <v>1.101982498406568E-05</v>
+        <v>5.508879634025436E-05</v>
       </c>
       <c r="T7">
-        <v>1.101982498406567E-05</v>
+        <v>5.508879634025436E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.398607</v>
       </c>
       <c r="I8">
-        <v>3.483001825688377E-05</v>
+        <v>2.389786936159469E-05</v>
       </c>
       <c r="J8">
-        <v>3.483001825688377E-05</v>
+        <v>2.389786936159469E-05</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N8">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O8">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P8">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q8">
-        <v>0.6314384863013334</v>
+        <v>1.647065028722666</v>
       </c>
       <c r="R8">
-        <v>5.682946376712001</v>
+        <v>14.823585258504</v>
       </c>
       <c r="S8">
-        <v>1.446016853956989E-06</v>
+        <v>2.137451360806231E-06</v>
       </c>
       <c r="T8">
-        <v>1.446016853956989E-06</v>
+        <v>2.137451360806231E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.398607</v>
       </c>
       <c r="I9">
-        <v>3.483001825688377E-05</v>
+        <v>2.389786936159469E-05</v>
       </c>
       <c r="J9">
-        <v>3.483001825688377E-05</v>
+        <v>2.389786936159469E-05</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N9">
         <v>21.28786</v>
       </c>
       <c r="O9">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P9">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q9">
-        <v>0.9428322234466666</v>
+        <v>0.9428322234466665</v>
       </c>
       <c r="R9">
-        <v>8.485490011020001</v>
+        <v>8.48549001102</v>
       </c>
       <c r="S9">
-        <v>2.159119716543548E-06</v>
+        <v>1.223544901916178E-06</v>
       </c>
       <c r="T9">
-        <v>2.159119716543548E-06</v>
+        <v>1.223544901916178E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.398607</v>
       </c>
       <c r="I10">
-        <v>3.483001825688377E-05</v>
+        <v>2.389786936159469E-05</v>
       </c>
       <c r="J10">
-        <v>3.483001825688377E-05</v>
+        <v>2.389786936159469E-05</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N10">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O10">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P10">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q10">
-        <v>3.633331283255667</v>
+        <v>4.632320988159332</v>
       </c>
       <c r="R10">
-        <v>32.699981549301</v>
+        <v>41.69088889343399</v>
       </c>
       <c r="S10">
-        <v>8.320459372648434E-06</v>
+        <v>6.011517837587227E-06</v>
       </c>
       <c r="T10">
-        <v>8.320459372648432E-06</v>
+        <v>6.011517837587228E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.398607</v>
       </c>
       <c r="I11">
-        <v>3.483001825688377E-05</v>
+        <v>2.389786936159469E-05</v>
       </c>
       <c r="J11">
-        <v>3.483001825688377E-05</v>
+        <v>2.389786936159469E-05</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N11">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O11">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P11">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q11">
-        <v>0.5321589909496666</v>
+        <v>0.207753702662</v>
       </c>
       <c r="R11">
-        <v>4.789430918547</v>
+        <v>1.869783323958</v>
       </c>
       <c r="S11">
-        <v>1.218663237341442E-06</v>
+        <v>2.696089266201016E-07</v>
       </c>
       <c r="T11">
-        <v>1.218663237341442E-06</v>
+        <v>2.696089266201016E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.398607</v>
       </c>
       <c r="I12">
-        <v>3.483001825688377E-05</v>
+        <v>2.389786936159469E-05</v>
       </c>
       <c r="J12">
-        <v>3.483001825688377E-05</v>
+        <v>2.389786936159469E-05</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N12">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O12">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P12">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q12">
-        <v>6.847019790720999</v>
+        <v>6.870929035794999</v>
       </c>
       <c r="R12">
-        <v>61.623178116489</v>
+        <v>61.838361322155</v>
       </c>
       <c r="S12">
-        <v>1.567992168921224E-05</v>
+        <v>8.916634353503686E-06</v>
       </c>
       <c r="T12">
-        <v>1.567992168921223E-05</v>
+        <v>8.916634353503686E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.398607</v>
       </c>
       <c r="I13">
-        <v>3.483001825688377E-05</v>
+        <v>2.389786936159469E-05</v>
       </c>
       <c r="J13">
-        <v>3.483001825688377E-05</v>
+        <v>2.389786936159469E-05</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N13">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O13">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P13">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q13">
-        <v>2.622595205827666</v>
+        <v>4.114182334089667</v>
       </c>
       <c r="R13">
-        <v>23.603356852449</v>
+        <v>37.027641006807</v>
       </c>
       <c r="S13">
-        <v>6.005837387181125E-06</v>
+        <v>5.339111981161264E-06</v>
       </c>
       <c r="T13">
-        <v>6.005837387181124E-06</v>
+        <v>5.339111981161264E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.28116933333333</v>
+        <v>116.5056053333333</v>
       </c>
       <c r="H14">
-        <v>111.843508</v>
+        <v>349.516816</v>
       </c>
       <c r="I14">
-        <v>0.009772812383008643</v>
+        <v>0.02095474291331695</v>
       </c>
       <c r="J14">
-        <v>0.009772812383008641</v>
+        <v>0.02095474291331695</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N14">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O14">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P14">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q14">
-        <v>177.1727425613476</v>
+        <v>1444.221813927239</v>
       </c>
       <c r="R14">
-        <v>1594.554683052128</v>
+        <v>12997.99632534515</v>
       </c>
       <c r="S14">
-        <v>0.0004057319554691045</v>
+        <v>0.001874214938482919</v>
       </c>
       <c r="T14">
-        <v>0.0004057319554691044</v>
+        <v>0.001874214938482919</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.28116933333333</v>
+        <v>116.5056053333333</v>
       </c>
       <c r="H15">
-        <v>111.843508</v>
+        <v>349.516816</v>
       </c>
       <c r="I15">
-        <v>0.009772812383008643</v>
+        <v>0.02095474291331695</v>
       </c>
       <c r="J15">
-        <v>0.009772812383008641</v>
+        <v>0.02095474291331695</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N15">
         <v>21.28786</v>
       </c>
       <c r="O15">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P15">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q15">
-        <v>264.5454378014311</v>
+        <v>826.7183385170845</v>
       </c>
       <c r="R15">
-        <v>2380.90894021288</v>
+        <v>7440.46504665376</v>
       </c>
       <c r="S15">
-        <v>0.000605818571400392</v>
+        <v>0.001072860030934667</v>
       </c>
       <c r="T15">
-        <v>0.0006058185714003918</v>
+        <v>0.001072860030934667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.28116933333333</v>
+        <v>116.5056053333333</v>
       </c>
       <c r="H16">
-        <v>111.843508</v>
+        <v>349.516816</v>
       </c>
       <c r="I16">
-        <v>0.009772812383008643</v>
+        <v>0.02095474291331695</v>
       </c>
       <c r="J16">
-        <v>0.009772812383008641</v>
+        <v>0.02095474291331695</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N16">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O16">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P16">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q16">
-        <v>1019.461566017294</v>
+        <v>4061.830531002776</v>
       </c>
       <c r="R16">
-        <v>9175.154094155645</v>
+        <v>36556.47477902499</v>
       </c>
       <c r="S16">
-        <v>0.002334603668296041</v>
+        <v>0.005271173295804371</v>
       </c>
       <c r="T16">
-        <v>0.002334603668296041</v>
+        <v>0.005271173295804371</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.28116933333333</v>
+        <v>116.5056053333333</v>
       </c>
       <c r="H17">
-        <v>111.843508</v>
+        <v>349.516816</v>
       </c>
       <c r="I17">
-        <v>0.009772812383008643</v>
+        <v>0.02095474291331695</v>
       </c>
       <c r="J17">
-        <v>0.009772812383008641</v>
+        <v>0.02095474291331695</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N17">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O17">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P17">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q17">
-        <v>149.3163149707631</v>
+        <v>182.1679314879893</v>
       </c>
       <c r="R17">
-        <v>1343.846834736868</v>
+        <v>1639.511383391904</v>
       </c>
       <c r="S17">
-        <v>0.0003419397339607771</v>
+        <v>0.0002364054158543015</v>
       </c>
       <c r="T17">
-        <v>0.000341939733960777</v>
+        <v>0.0002364054158543015</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.28116933333333</v>
+        <v>116.5056053333333</v>
       </c>
       <c r="H18">
-        <v>111.843508</v>
+        <v>349.516816</v>
       </c>
       <c r="I18">
-        <v>0.009772812383008643</v>
+        <v>0.02095474291331695</v>
       </c>
       <c r="J18">
-        <v>0.009772812383008641</v>
+        <v>0.02095474291331695</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N18">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O18">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P18">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q18">
-        <v>1921.177281732791</v>
+        <v>6024.744270805627</v>
       </c>
       <c r="R18">
-        <v>17290.59553559512</v>
+        <v>54222.69843725064</v>
       </c>
       <c r="S18">
-        <v>0.004399565102687063</v>
+        <v>0.007818512090035616</v>
       </c>
       <c r="T18">
-        <v>0.004399565102687062</v>
+        <v>0.007818512090035616</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,14 +1582,14 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.28116933333333</v>
+        <v>116.5056053333333</v>
       </c>
       <c r="H19">
-        <v>111.843508</v>
+        <v>349.516816</v>
       </c>
       <c r="I19">
-        <v>0.009772812383008643</v>
+        <v>0.02095474291331695</v>
       </c>
       <c r="J19">
-        <v>0.009772812383008641</v>
+        <v>0.02095474291331695</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N19">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O19">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P19">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q19">
-        <v>735.863263524595</v>
+        <v>3607.502903497602</v>
       </c>
       <c r="R19">
-        <v>6622.769371721356</v>
+        <v>32467.52613147841</v>
       </c>
       <c r="S19">
-        <v>0.001685153351195266</v>
+        <v>0.004681577142205073</v>
       </c>
       <c r="T19">
-        <v>0.001685153351195265</v>
+        <v>0.004681577142205073</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>3774.221028666667</v>
+        <v>0.06205766666666667</v>
       </c>
       <c r="H20">
-        <v>11322.663086</v>
+        <v>0.186173</v>
       </c>
       <c r="I20">
-        <v>0.9893668751475111</v>
+        <v>1.116171575676335E-05</v>
       </c>
       <c r="J20">
-        <v>0.989366875147511</v>
+        <v>1.116171575676335E-05</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N20">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O20">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P20">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q20">
-        <v>17936.37653107905</v>
+        <v>0.7692765997395555</v>
       </c>
       <c r="R20">
-        <v>161427.3887797114</v>
+        <v>6.923489397656</v>
       </c>
       <c r="S20">
-        <v>0.04107494764023877</v>
+        <v>9.983159658394821E-07</v>
       </c>
       <c r="T20">
-        <v>0.04107494764023876</v>
+        <v>9.983159658394819E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>3774.221028666667</v>
+        <v>0.06205766666666667</v>
       </c>
       <c r="H21">
-        <v>11322.663086</v>
+        <v>0.186173</v>
       </c>
       <c r="I21">
-        <v>0.9893668751475111</v>
+        <v>1.116171575676335E-05</v>
       </c>
       <c r="J21">
-        <v>0.989366875147511</v>
+        <v>1.116171575676335E-05</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N21">
         <v>21.28786</v>
       </c>
       <c r="O21">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P21">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q21">
-        <v>26781.696289104</v>
+        <v>0.4403583066422223</v>
       </c>
       <c r="R21">
-        <v>241035.266601936</v>
+        <v>3.96322475978</v>
       </c>
       <c r="S21">
-        <v>0.06133104815711319</v>
+        <v>5.714676988222499E-07</v>
       </c>
       <c r="T21">
-        <v>0.06133104815711317</v>
+        <v>5.714676988222499E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>3774.221028666667</v>
+        <v>0.06205766666666667</v>
       </c>
       <c r="H22">
-        <v>11322.663086</v>
+        <v>0.186173</v>
       </c>
       <c r="I22">
-        <v>0.9893668751475111</v>
+        <v>1.116171575676335E-05</v>
       </c>
       <c r="J22">
-        <v>0.989366875147511</v>
+        <v>1.116171575676335E-05</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N22">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O22">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P22">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q22">
-        <v>103206.8829702638</v>
+        <v>2.163567361658444</v>
       </c>
       <c r="R22">
-        <v>928861.9467323744</v>
+        <v>19.472106254926</v>
       </c>
       <c r="S22">
-        <v>0.2363474755768191</v>
+        <v>2.807733708582957E-06</v>
       </c>
       <c r="T22">
-        <v>0.2363474755768191</v>
+        <v>2.807733708582957E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>3774.221028666667</v>
+        <v>0.06205766666666667</v>
       </c>
       <c r="H23">
-        <v>11322.663086</v>
+        <v>0.186173</v>
       </c>
       <c r="I23">
-        <v>0.9893668751475111</v>
+        <v>1.116171575676335E-05</v>
       </c>
       <c r="J23">
-        <v>0.989366875147511</v>
+        <v>1.116171575676335E-05</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N23">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O23">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P23">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q23">
-        <v>15116.28486882769</v>
+        <v>0.09703324348466667</v>
       </c>
       <c r="R23">
-        <v>136046.5638194492</v>
+        <v>0.8732991913620001</v>
       </c>
       <c r="S23">
-        <v>0.03461683626155888</v>
+        <v>1.259232845776521E-07</v>
       </c>
       <c r="T23">
-        <v>0.03461683626155888</v>
+        <v>1.259232845776521E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>3774.221028666667</v>
+        <v>0.06205766666666667</v>
       </c>
       <c r="H24">
-        <v>11322.663086</v>
+        <v>0.186173</v>
       </c>
       <c r="I24">
-        <v>0.9893668751475111</v>
+        <v>1.116171575676335E-05</v>
       </c>
       <c r="J24">
-        <v>0.989366875147511</v>
+        <v>1.116171575676335E-05</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N24">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O24">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P24">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q24">
-        <v>194493.5694393428</v>
+        <v>3.209129471838334</v>
       </c>
       <c r="R24">
-        <v>1750442.124954085</v>
+        <v>28.882165246545</v>
       </c>
       <c r="S24">
-        <v>0.445397272255164</v>
+        <v>4.164594619499512E-06</v>
       </c>
       <c r="T24">
-        <v>0.4453972722551639</v>
+        <v>4.164594619499511E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>3774.221028666667</v>
+        <v>0.06205766666666667</v>
       </c>
       <c r="H25">
-        <v>11322.663086</v>
+        <v>0.186173</v>
       </c>
       <c r="I25">
-        <v>0.9893668751475111</v>
+        <v>1.116171575676335E-05</v>
       </c>
       <c r="J25">
-        <v>0.989366875147511</v>
+        <v>1.116171575676335E-05</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N25">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O25">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P25">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q25">
-        <v>74496.33831454413</v>
+        <v>1.921566022885889</v>
       </c>
       <c r="R25">
-        <v>670467.0448308972</v>
+        <v>17.294094205973</v>
       </c>
       <c r="S25">
-        <v>0.1705992952566172</v>
+        <v>2.493680479441496E-06</v>
       </c>
       <c r="T25">
-        <v>0.1705992952566172</v>
+        <v>2.493680479441496E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>2.905242333333334</v>
+        <v>5404.622721333333</v>
       </c>
       <c r="H26">
-        <v>8.715727000000001</v>
+        <v>16213.868164</v>
       </c>
       <c r="I26">
-        <v>0.0007615745095595783</v>
+        <v>0.9720775180300174</v>
       </c>
       <c r="J26">
-        <v>0.0007615745095595782</v>
+        <v>0.9720775180300174</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N26">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O26">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P26">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q26">
-        <v>13.80669547673689</v>
+        <v>66996.55358095616</v>
       </c>
       <c r="R26">
-        <v>124.260259290632</v>
+        <v>602968.9822286053</v>
       </c>
       <c r="S26">
-        <v>3.161782943221767E-05</v>
+        <v>0.08694366775062812</v>
       </c>
       <c r="T26">
-        <v>3.161782943221766E-05</v>
+        <v>0.0869436677506281</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>2.905242333333334</v>
+        <v>5404.622721333333</v>
       </c>
       <c r="H27">
-        <v>8.715727000000001</v>
+        <v>16213.868164</v>
       </c>
       <c r="I27">
-        <v>0.0007615745095595783</v>
+        <v>0.9720775180300174</v>
       </c>
       <c r="J27">
-        <v>0.0007615745095595782</v>
+        <v>0.9720775180300174</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N27">
         <v>21.28786</v>
       </c>
       <c r="O27">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P27">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q27">
-        <v>20.61546401935778</v>
+        <v>38350.95061485434</v>
       </c>
       <c r="R27">
-        <v>185.53917617422</v>
+        <v>345158.555533689</v>
       </c>
       <c r="S27">
-        <v>4.721015438692986E-05</v>
+        <v>0.04976931095641376</v>
       </c>
       <c r="T27">
-        <v>4.721015438692984E-05</v>
+        <v>0.04976931095641375</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>2.905242333333334</v>
+        <v>5404.622721333333</v>
       </c>
       <c r="H28">
-        <v>8.715727000000001</v>
+        <v>16213.868164</v>
       </c>
       <c r="I28">
-        <v>0.0007615745095595783</v>
+        <v>0.9720775180300174</v>
       </c>
       <c r="J28">
-        <v>0.0007615745095595782</v>
+        <v>0.9720775180300174</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N28">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O28">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P28">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q28">
-        <v>79.44447429527345</v>
+        <v>188425.7973275573</v>
       </c>
       <c r="R28">
-        <v>715.0002686574611</v>
+        <v>1695832.175948016</v>
       </c>
       <c r="S28">
-        <v>0.00018193070469559</v>
+        <v>0.2445264575990228</v>
       </c>
       <c r="T28">
-        <v>0.0001819307046955899</v>
+        <v>0.2445264575990228</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>2.905242333333334</v>
+        <v>5404.622721333333</v>
       </c>
       <c r="H29">
-        <v>8.715727000000001</v>
+        <v>16213.868164</v>
       </c>
       <c r="I29">
-        <v>0.0007615745095595783</v>
+        <v>0.9720775180300174</v>
       </c>
       <c r="J29">
-        <v>0.0007615745095595782</v>
+        <v>0.9720775180300174</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N29">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O29">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P29">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q29">
-        <v>11.63590324734078</v>
+        <v>8450.657277831357</v>
       </c>
       <c r="R29">
-        <v>104.723129226067</v>
+        <v>76055.91550048222</v>
       </c>
       <c r="S29">
-        <v>2.664663711777318E-05</v>
+        <v>0.01096670051468207</v>
       </c>
       <c r="T29">
-        <v>2.664663711777318E-05</v>
+        <v>0.01096670051468207</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>2.905242333333334</v>
+        <v>5404.622721333333</v>
       </c>
       <c r="H30">
-        <v>8.715727000000001</v>
+        <v>16213.868164</v>
       </c>
       <c r="I30">
-        <v>0.0007615745095595783</v>
+        <v>0.9720775180300174</v>
       </c>
       <c r="J30">
-        <v>0.0007615745095595782</v>
+        <v>0.9720775180300174</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N30">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O30">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P30">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q30">
-        <v>149.7132645927477</v>
+        <v>279484.147419839</v>
       </c>
       <c r="R30">
-        <v>1347.419381334729</v>
+        <v>2515357.326778551</v>
       </c>
       <c r="S30">
-        <v>0.0003428487628781048</v>
+        <v>0.3626959232384332</v>
       </c>
       <c r="T30">
-        <v>0.0003428487628781047</v>
+        <v>0.3626959232384331</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5404.622721333333</v>
+      </c>
+      <c r="H31">
+        <v>16213.868164</v>
+      </c>
+      <c r="I31">
+        <v>0.9720775180300174</v>
+      </c>
+      <c r="J31">
+        <v>0.9720775180300174</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>30.96420033333333</v>
+      </c>
+      <c r="N31">
+        <v>92.892601</v>
+      </c>
+      <c r="O31">
+        <v>0.2234137236410514</v>
+      </c>
+      <c r="P31">
+        <v>0.2234137236410514</v>
+      </c>
+      <c r="Q31">
+        <v>167349.8206694505</v>
+      </c>
+      <c r="R31">
+        <v>1506148.386025055</v>
+      </c>
+      <c r="S31">
+        <v>0.2171754579708375</v>
+      </c>
+      <c r="T31">
+        <v>0.2171754579708374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>37.17384466666667</v>
+      </c>
+      <c r="H32">
+        <v>111.521534</v>
+      </c>
+      <c r="I32">
+        <v>0.006686101976474674</v>
+      </c>
+      <c r="J32">
+        <v>0.006686101976474674</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>12.39615733333333</v>
+      </c>
+      <c r="N32">
+        <v>37.188472</v>
+      </c>
+      <c r="O32">
+        <v>0.08944108482914562</v>
+      </c>
+      <c r="P32">
+        <v>0.0894410848291456</v>
+      </c>
+      <c r="Q32">
+        <v>460.8128271728942</v>
+      </c>
+      <c r="R32">
+        <v>4147.315444556048</v>
+      </c>
+      <c r="S32">
+        <v>0.0005980122140541895</v>
+      </c>
+      <c r="T32">
+        <v>0.0005980122140541894</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>37.17384466666667</v>
+      </c>
+      <c r="H33">
+        <v>111.521534</v>
+      </c>
+      <c r="I33">
+        <v>0.006686101976474674</v>
+      </c>
+      <c r="J33">
+        <v>0.006686101976474674</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>7.095953333333333</v>
+      </c>
+      <c r="N33">
+        <v>21.28786</v>
+      </c>
+      <c r="O33">
+        <v>0.05119891164366677</v>
+      </c>
+      <c r="P33">
+        <v>0.05119891164366677</v>
+      </c>
+      <c r="Q33">
+        <v>263.7838669752489</v>
+      </c>
+      <c r="R33">
+        <v>2374.05480277724</v>
+      </c>
+      <c r="S33">
+        <v>0.0003423211443340726</v>
+      </c>
+      <c r="T33">
+        <v>0.0003423211443340726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>37.17384466666667</v>
+      </c>
+      <c r="H34">
+        <v>111.521534</v>
+      </c>
+      <c r="I34">
+        <v>0.006686101976474674</v>
+      </c>
+      <c r="J34">
+        <v>0.006686101976474674</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>34.86382066666666</v>
+      </c>
+      <c r="N34">
+        <v>104.591462</v>
+      </c>
+      <c r="O34">
+        <v>0.2515503682201936</v>
+      </c>
+      <c r="P34">
+        <v>0.2515503682201936</v>
+      </c>
+      <c r="Q34">
+        <v>1296.02225394919</v>
+      </c>
+      <c r="R34">
+        <v>11664.20028554271</v>
+      </c>
+      <c r="S34">
+        <v>0.001681891414139969</v>
+      </c>
+      <c r="T34">
+        <v>0.001681891414139969</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>37.17384466666667</v>
+      </c>
+      <c r="H35">
+        <v>111.521534</v>
+      </c>
+      <c r="I35">
+        <v>0.006686101976474674</v>
+      </c>
+      <c r="J35">
+        <v>0.006686101976474674</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.563598</v>
+      </c>
+      <c r="N35">
+        <v>4.690794</v>
+      </c>
+      <c r="O35">
+        <v>0.01128171396958841</v>
+      </c>
+      <c r="P35">
+        <v>0.01128171396958841</v>
+      </c>
+      <c r="Q35">
+        <v>58.12494917311067</v>
+      </c>
+      <c r="R35">
+        <v>523.1245425579961</v>
+      </c>
+      <c r="S35">
+        <v>7.543069007008698E-05</v>
+      </c>
+      <c r="T35">
+        <v>7.543069007008698E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>2.905242333333334</v>
-      </c>
-      <c r="H31">
-        <v>8.715727000000001</v>
-      </c>
-      <c r="I31">
-        <v>0.0007615745095595783</v>
-      </c>
-      <c r="J31">
-        <v>0.0007615745095595782</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>19.73820233333333</v>
-      </c>
-      <c r="N31">
-        <v>59.214607</v>
-      </c>
-      <c r="O31">
-        <v>0.1724327946912327</v>
-      </c>
-      <c r="P31">
-        <v>0.1724327946912327</v>
-      </c>
-      <c r="Q31">
-        <v>57.34426100269879</v>
-      </c>
-      <c r="R31">
-        <v>516.0983490242891</v>
-      </c>
-      <c r="S31">
-        <v>0.000131320421048963</v>
-      </c>
-      <c r="T31">
-        <v>0.000131320421048963</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>37.17384466666667</v>
+      </c>
+      <c r="H36">
+        <v>111.521534</v>
+      </c>
+      <c r="I36">
+        <v>0.006686101976474674</v>
+      </c>
+      <c r="J36">
+        <v>0.006686101976474674</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>51.712055</v>
+      </c>
+      <c r="N36">
+        <v>155.136165</v>
+      </c>
+      <c r="O36">
+        <v>0.3731141976963542</v>
+      </c>
+      <c r="P36">
+        <v>0.3731141976963541</v>
+      </c>
+      <c r="Q36">
+        <v>1922.335899964123</v>
+      </c>
+      <c r="R36">
+        <v>17301.02309967711</v>
+      </c>
+      <c r="S36">
+        <v>0.002494679574668356</v>
+      </c>
+      <c r="T36">
+        <v>0.002494679574668356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>37.17384466666667</v>
+      </c>
+      <c r="H37">
+        <v>111.521534</v>
+      </c>
+      <c r="I37">
+        <v>0.006686101976474674</v>
+      </c>
+      <c r="J37">
+        <v>0.006686101976474674</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>30.96420033333333</v>
+      </c>
+      <c r="N37">
+        <v>92.892601</v>
+      </c>
+      <c r="O37">
+        <v>0.2234137236410514</v>
+      </c>
+      <c r="P37">
+        <v>0.2234137236410514</v>
+      </c>
+      <c r="Q37">
+        <v>1151.058373418882</v>
+      </c>
+      <c r="R37">
+        <v>10359.52536076993</v>
+      </c>
+      <c r="S37">
+        <v>0.001493766939208</v>
+      </c>
+      <c r="T37">
+        <v>0.001493766939208</v>
       </c>
     </row>
   </sheetData>
